--- a/data/AnnotatedFewShotData.xlsx
+++ b/data/AnnotatedFewShotData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t xml:space="preserve">Title </t>
   </si>
@@ -146,6 +146,84 @@
   </si>
   <si>
     <t xml:space="preserve">Salvo que se indique lo contrario, las variaciones comentadas en adelante son a tipos de cambio constantes -sin tener en cuenta la evolucion de las divisas en el periodo-, para una mejor comprension de la evolucion de cada linea de la cuenta de resultados. Adicionalmente, desde el 1 de enero de 2022 las cifras de Turquia se expresan bajo la contabilidad por hiperinflacion. El margen de intereses alcanzo 8.551 millones de euros entre enero y junio, lo que supone un alza interanual del 26,5%, impulsado por el fuerte incremento de la actividad. Por areas, la buena evolucion de Mexico, Turquia y America del Sur compenso la estabilidad de esta rubrica en Espana. Las comisiones netas aumentaron un 17,8%, hasta 2.650 millones de euros, con una senda positiva en las principales geografias, gracias de nuevo a una mayor actividad. En conjunto, los ingresos recurrentes del negocio bancario (margen de intereses y comisiones) registraron una subida del 24,3%, hasta 11.201 millones de euros. El resultado de operaciones financieras (ROF) registro un alza interanual del 5,5%, hasta 1.095 millones de euros, principalmente por la aportacion de la unidad de Mercados Globales en Espana y Turquia. La linea de otros ingresos y cargas de explotacion acumulo a 30 de junio de 2022 un resultado negativo de 787 millones de euros, condicionado principalmente por el ajuste por inflacion en Turquia desde el 1 de enero de 2022. El margen bruto crecio un 15,8% hasta 11.509 millones de euros y los gastos se incrementaron a un ritmo (+12%) por debajo de la inflacion, que llego al 13,1% de media en los paises en los que BBVA desarrolla su actividad. Gracias a estos dos factores, las mandibulas se mantuvieron positivas y el ratio de eficiencia se situo en el 43,9% a cierre de junio, el mejor entre los bancos europeos comparables. Como resultado de todo lo anterior, el margen neto alcanzo la cifra de 6.456 millones de euros en los primeros seis meses del ano, un 19% mas que un ano atras. Las lineas de deterioro de activos financieros y de provisiones y otros resultados registraron sendas caidas del 9,1% y del 57,1%, respectivamente, frente al primer semestre de 2021. El coste de riesgo acumulado se mantuvo en el mismo nivel del primer trimestre, en el 0,81%, evolucionando mejor de lo esperado, mientras que la tasa de mora cayo desde el 3,9% hasta el 3,7%, y la tasa de cobertura mejoro del 76% al 78%. El Grupo BBVA genero un resultado atribuido de 3.001 millones de euros en el primer semestre de 2022, lo que supone un crecimiento interanual del 59,3%. Excluyendo el impacto neto de -201 millones de euros por la compra de oficinas en Espana a Merlin, el beneficio recurrente ascendio a 3.203 millones de euros, un 40,8% mas. En el segundo trimestre del ejercicio, el beneficio ascendio a 1.675 millones de euros. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkitect y Maria Elena Villamil se alian con Parques ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2022- Durante la proxima edicion de Colombiamoda, Arkitect, la marca textil exterior de Grupo Exito, presentara su primera colaboracion con la la disenadora de origen paisa Maria Elena Villamil, en alianza con Parques Nacionales Naturales; este ultimo un aliado estrategico para visibilizar y entregar un mensaje de conservacion por las especies florales en peligro de extincion en el pais. Grupo Exito busca aportar con la labor de posicionamiento de las 62 areas protegidas de los Parques Nacionales Naturales; ademas de apoyar la implementacion de acciones de restauracion en el Parque Nacional Natural Los Nevados, con la construccion y adecuacion de tres viveros de alta montana y la siembra de 3.000 individuos de especies nativas. " Colombia es el segundo pais con mayor biodiversidad en el mundo, por eso, para Parques Nacionales Naturales es de gran importancia la proteccion y conservacion de nuestra riqueza natural y cultural. Quiero invitar a los colombianos y extranjeros a que conozcan, valoren y protejan nuestras areas protegidas y se enamoren de las maravillas que pueden encontrar alli, " Dice Orlando Molano, director General de Parques Nacionales Naturales de Colombia. El Tiempo de las Orquideas El amor y la conexion de MEV por las flores, su belleza, exuberancia y vivacidad de color, fueron el punto de partida e inspiracion para el diseno de la coleccion que tomo alrededor de un ano; desde su conceptualizacion y conocimiento de las diferentes especies en via de extincion; pasando por la creacion de las grafias alusivas a las orquideas y bromelias que terminando dibujando las siluetas de las prendas; cocreadas entre el equipo de MEV y la ilustradora Barbara Wiesner. La coleccion incluye 75 referencias en vestidos, faldas, pantalones, jeans, shorts, chaquetas, camisas, camisetas, crop tops y por primera vez, en su coleccion con disenador, Arkitec incluira tendra prendas masculinas como chaquetas, camisetas, camisas, jeans y pantalones. Las piezas de calzado y marroquineria fueron elaboradas en el municipio de San Jacinto, en el departamento de Bolivar, por la empresa de Artesanias Karen Dayana, unidad productiva familiar donde 52 artesanos, entre ellos 25 madres, trabajan la artesania y preservan su tradicion cultural compartiendo su conocimiento a las nuevas generaciones. En el marco de Colombiamoda, las marcas textiles Arkitect, Bronzini y People recibiran el sello oro sostenible , un reconocimiento que entrega la compania CO2CERO por las buenas practicas de produccion y consumo responsable. Algunas de las razones por las que entregan este sello a las marcas propias de Grupo Exito son: Descarga el kit de prensa de Moda Exito en Colombiamoda aqui Contacto para prensa: Lina De Vivero gerencia@allinone.com.co / Celular 315-3340669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyndham Hotels &amp; Resorts y Palladium Hotel Group firman una alianza estrategica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyndham Hotels &amp; Resorts, la mayor compania de franquicias hoteleras del mundo con mas de 8.900 hoteles en mas de 95 paises, y Palladium Hotel Group, uno de los mayores grupos hoteleros de Espana, han anunciado hoy una alianza comercial para incluir mas de 6.500 habitaciones dentro de la marca Registry Collection de Wyndham. 14 espectaculares resorts all-inclusive de las marcas TRS Hotels y Grand Palladium Hotels &amp; Resorts gestionados por Palladium Hotel Group y situados en Mexico, Republica Dominicana, Jamaica y Brasil, se uniran al portfolio de Wyndham a traves de un acuerdo a largo plazo, gracias al cual Palladium Hotel Group se beneficiara de la fuerza en la distribucion de Wyndham y, por su parte, Wyndham aumentara su numero de hoteles all-inclusive hasta un total de 26 resorts. "La expansion de Registry Collection Hotels supone un paso mas en el crecimiento a nivel global de Wyndham dentro del sector del lujo y ofrece a los viajeros la posibilidad de disfrutar de nuevas e increibles experiencias en algunos de los destinos mas importantes del mundo", senala Geoffrey A. Ballotti, Presidente y Director Ejecutivo de Wyndham Hotels &amp; Resorts. "Ya sea reservando sus puntos a traves de Wyndham Rewards o bien reservando de forma directa, estamos brindado a los huespedes la posibilidad de que disfruten de unas vacaciones inolvidables gracias a estos exclusivos y unicos resorts". "Para nosotros este acuerdo con una de las companias con mayor capacidad de distribucion en Estados Unidos, es una gran satisfaccion" anade Jesus Sobrino, CEO de Palladium Hotel Group. "Esta alianza se enmarca en nuestra apuesta por el mercado americano, por su cercania y gran conectividad aerea con nuestros destinos de Caribe. Nos alegra mucho, ademas, sumar sinergias entre nuestro programa Palladium Rewards y Wyndham Rewards(r), reconocido como uno de los mejores y mas solidos programas de fidelizacion del sector a nivel mundial. Como gestores, mejoramos nuestra propuesta de valor hacia los propietarios sumandole a este acuerdo nuestro gran know-how y experiencia en la gestion de resorts todo incluido en Caribe". Registry Collection Hotels es una seleccion de hoteles disenados para ofrecer experiencias increibles en destinos espectaculares que se caracterizan por su personalidad inconfundible, su cuidado diseno y un excelente servicio; valores y caracteristicas que tambien comparten las marcas de Palladium Hotel Group. Como parte de esta alianza, las dos marcas de lujo all-inclusive del grupo espanol, Grand Palladium Hotels &amp; Resorts y TRS Hotels, se uniran a la marca lider de lujo de Wyndham, Registry Collection, incluyendo: A traves de esta alianza, ambas companias buscan reforzar su liderazgo en la region y seguir creciendo, ademas de continuar promoviendo el desarrollo de altos estandares de calidad en destinos turisticos clave del Caribe. Ademas, con la inclusion dentro de Registry Collection, los hoteles de Palladium Hotel Group mantendran su sello de identidad y personalidad unica al mismo tiempo que se beneficiaran del alcance mundial de Wyndham Hotels &amp; Resorts y su galardonado programa de fidelizacion Wyndham Rewards(r), con mas de 94 millones de miembros. Asimismo, Wyndham Hotels &amp; Resorts aprovechara la experiencia y larga trayectoria de Palladium Hotel Group como compania gestora hotelera en resorts 5 estrellas de todo incluido en America y especialmente en el Caribe. Los primeros cuatro hoteles que se uniran a la marca de Registry Collection Hotels bajo este acuerdo estrategico son: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberculosis: modernizan equipamiento y produccion de farmacos en Rio Negro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo a la informacion oficial, "se trata de dos proyectos articulados , primero el laboratorio rionegrino se asocio con el Centro de Excelencia en Productos y Procesos (Ceprocor), de Cordoba, para trabajar en la investigacion y el desarrollo de un antibiotico de cuadruple asociacion , que no tiene antecedentes en el pais ni en la region , para tratar la tuberculosis". Ese proyecto "contara con el financiamiento del Estado nacional , a traves del Fondo Argentino Sectorial (Fonaserc) de la Agencia Nacional de Promocion de la Investigacion, el Desarrollo Tecnologico y la Innovacion (Agencia de I+D+i) y permitira llevar adelante los ensayos clinicos necesarios para analizar la biodisponibilidad y la eficacia del medicamento". El segundo proyecto del Profarse, "en articulacion con el Instituto Nacional de Tecnologia Industrial (INTI) , tiene como proposito avanzar en la adecuacion de las plantas piloto de ambas instituciones de manera que puedan operar cumpliendo la normativa vigente por la autoridad regulatoria". De ese modo, "este proyecto permitira sustituir importaciones, fortalecer el sistema sanitario nacional y avanzar en soberania en materia de salud publica" , indicaron desde el Gobierno rionegrino. En este sentido, autoridades del Ministerio de Salud provincial y directivos de la Productora Farmaceutica, recibieron a una delegacion del Ministerio de Ciencia, Tecnologia e Innovacion de Nacion para avanzar en la presentacion de los proyectos. Al respecto, el ministro de Salud de Rio Negro , Fabian Zgaib, agradecio la visita del equipo tecnico de Nacion y expreso: "Este acompanamiento fortifica los proyectos y el trabajo que se realiza en el laboratorio provincial". Asimismo, el funcionario agrego que desde el Estado provincial se aposto mucho al crecimiento del laboratorio, "esto marca que vamos en buen camino", asevero. Por su parte, la gerente general del Profarse, Marne Livigni, senalo: "Es un orgullo recibir este financiamiento para impulsar nuestros proyectos, liderados en gran parte por mujeres". Y, afirmo que se apunta a "fortalecer la cadena de valor, la produccion nacional de medicamentos y las alianzas publicas generando respuestas para el tratamiento de enfermedades desatendidas , como es la tuberculosis". Por ultimo, la Directora Nacional de Proyectos Estrategicos (DNPE), Erica Carrizo, destaco el trabajo que esta realizando el Profarse con dos de nuestros proyectos estrategicos que "le permitiran producir mejores y nuevos medicamentos para nuestro sistema de salud publica". En ese sentido, remarco que "este laboratorio no solo es un motor para nuestra soberania sanitaria sino tambien un ejemplo de trabajo colectivo y federal , por la asociatividad estrategica que logro generar en el marco de estos proyectos junto al INTI de Buenos Aires y el Ceprocor de Cordoba".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partidos hoy 30 de julio: programacion y horarios por TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se viene un sabado muy futbolero, ya que hay buenos compromisos en la Copa de Alemania, se disputa una nueva fecha en la liga del futbol colombiano, hay amistosos internacionales y tambien juega el Liverpool de Luis Diaz frente al Manchester City, por la Community Shield. Si fuera poco, la Seleccion Colombia femenina jugara la final de la Copa America frente a Brasil, ademas hay futbol en Argentina, en Mexico y en la MLS. Aca le presentamos la programacion de los partidos de hoy televisados o por plataformas digitales en nuestro pais para que se agende. Partidos sabado, 30 de julio de 2022 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con gran volatilidad comenzo la semana para la Bolsa de Valores de Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Bolsa de Valores de Colombia tuvo una jornada bastante volatil este lunes (18 de julio) en el que gran parte de sus indicadores lograron reportes muy altos en las primeras horas, pero luego se desplomaron, aunque cerraron en terreno positivo. Los informes al cierre de las operaciones para hoy dan cuenta que el indice MSCI Colcap termino sobre las 1.281,71 unidades, apenas un 0,59 % por encima de las 1.274 con las que comenzo el dia. No obstante, se debe destacar que sobre las 10 de la manana se alcanzo a ubicar sobre las 1.288 unidades, mostrando resultados favorables. No obstante, luego de esto empezo a ceder terreno, cayendo incluso a niveles de 1.271,30, quedando por debajo del valor de referencia para esta jornada, que sin duda destaco por la volatilidad en este indicador, uno de los mas importantes del mercado colombiano. Por otra parte, pese a estar entre las mas negociadas, las acciones de Ecopetrol aumentaron un modesto 1,29 % y cerraron su cotizacion en 2.125 pesos por unidad, pese a que hoy nuevamente se dispararon los precios internacionales del petroleo, hasta quedar por encima de los 100 dolares por barril, tanto en Brent, como en WTI. Los precios del petroleo subieron el lunes por tercera sesion consecutiva, en un mercado al que no calmo la visita del presidente Joe Biden a Oriente Medio y que teme una suspension prolongada de las exportaciones de gas ruso a Europa. El barril de Brent para entrega en septiembre gano un 5,05 %, para cerrar en 106,27 dolares. Mientras que el barril de WTI, para agosto, subio un 5,13 %, a 102,60 dolares, cerrando por encima de los 100 dolares por primera vez desde hace una semana. Entre tanto, el grupo de las acciones mas valorizadas para hoy estuvo encabezado por Construcciones El Condor, que aumento un 9,88 %, seguida por Corficolombiana que crecio un 4,66 %. Bancolombia (3,36 %), preferencial de Cementos Argos (3,13 %) y Exito (2,86 %) tambien se destacaron por notables crecimientos. Caso contrario fue el de Cementos Argos, que cayo un 2,86 % y cerro con un precio por accion de 4.041 pesos. A esta empresa le siguieron Grupo Sura (-2,03 %), ETB (-1,89 %), Grupo Argos (-1,67 %) y Mineros, que paso de tener una semana pasada bastante positiva, a comenzar con perdidas de -1,35 % para el comienzo de esta. Estos resultados, en su mayoria positivos, van de la mano con los recientes resultados de crecimiento economico revelados por el Dane, con el Indicador de Seguimiento a la Economia para el mes de mayo, el cual crecio un 16,5 %, cifra que supero con creces las expectativas que se tenian para este periodo, las cuales se ubicaban en apenas un 12 %. Esta cifra es 4,5 % mas alta que la alcanzada en abril, cuando este mismo indicador se ubico en 12 %, impulsada en ese entonces por las actividades terciarias del sector productivo, estuvo por encima de lo esperado, teniendo en cuenta los valores obtenidos en febrero y marzo. No obstante, al revisar la serie ajustada por efecto estacional, se puede apreciar que la variacion frente al mes inmediatamente anterior fue -0,8 %, lo que significa una leve caida, que no afecta el ritmo positivo que ha traido consigo este indicador a lo largo del ano. Industrias manufactureras y construccion (33,1 %), comercio al por mayor y al por menor, transporte y almacenamiento y alojamiento y servicios de comida (29,1 %) e informacion y comunicaciones (17,2 %) fueron los sectores que mas jalonaron el crecimiento economico para este periodo, segun los reportes del Dane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superintendencia pidio a la Fiscalia investigar empresas sospechosas de agregar lactosueros a la leche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Superintendencia de Industria y Comercio sigue firme en la investigacion contra empresas procesadoras de leche a las que senala de presuntamente utilizar lactosuero para rendir el producto final. El ente de vigilancia remitio pliego de cargos a la Fiscalia General de la Nacion en contra de cuatro companias . Segun revelo la W Radio, el superintendente Andres Barreto le remitio a la vicefiscal general Martha Mancera la informacion que tiene la entidad sobre la presunta adulteracion de leche entera por parte de companias procesadoras contras las que adelanta una actuacion administrativa sancionatoria. En esta, se lee en el documento se encuentran investigadas y con pliego de cargos GLORIA COLOMBIA S.A.S. (Algarra), LACTALIS COLOMBIA LTDA. (Parmalat), SABANALAC S.A. (Pomar) y COMPANIA PROCESADORA Y DISTRIBUIDORA DE LACTEOS LTDA (Alkosto), por presunta competencia desleal por la presunta adicion de lactosuero a la leche entera higienizada UAT. Asi mismo, GLORIA COLOMBIA S.A.S. tendria otra investigacion abierta y pliego cargos por haber adicionado lactosuero, presuntamente, al producto que comercializa como leche entera, lo cual se encuentra prohibido por los articulos 6 y 23 de la Ley 480 de 2011. La SIC remitio las actuaciones que adelanta en contra de estas companias, que todavia no han sido sancionadas ni halladas infractoras, para que la Fiscalia determine si hay implicaciones penales en los hechos senalados para que se inicie el proceso correspondiente. Estos podrian ser alteracion y modificacion de calidad, cantidad, peso o medida; ofrecimiento enganoso de productos y servicios; y corrupcion de alimentos. Estas companias han asegurado que no han adicionado lactosuero a la leche, como lo sostiene la SIC, por lo que esperan el desarrollo del proceso para defenderse de la acusacion. Por ejemplo, GLORIA COLOMBIA sostiene que en el pais no hay mecanismo para medir ese subproducto en la leche, por lo que descarta sustento tecnico; aunque el Invima asegura contar con las herramientas para hacerlo. "La leche Parmalat no ha sido adulterada, ni antes, ni ahora. Por eso, rechazamos categoricamente las acusaciones infundadas sobre una presunta adicion de lactosueros en la leche de nuestra marca Parmalat", sostuvo el director general de Lactalis, Ivan Lopez Arango al diario La Republica. Desde la empresa Sabanalac afirman que se ha respetado el marco tecnico de la produccion de leche en Colombia y senalan que rechazan enfaticamente este tipo de practica en su planta de produccion. Ademas, confia en que "una indagacion profunda y de alto enfoque tecnico por parte de la SIC, hara avanzar el proceso de manera positiva, confirmando la alta calidad etica e industrial de la compania". Que es el lactosuero Durante el proceso de precipitacion de la caseina en la produccion de quesos, surge un subproducto liquido que se conoce como lactosuero, que en algunos paises se utiliza para rendir la leche, y que tambien funciona para espesar o en la produccion de alimentos derivados como postres. No se trata de un producto nocivo para la salud y esta probado que contiene lactosa, sin embargo, no tiene los mismos componentes que la leche, por lo que al adicionarse a este ultimo, cambiaria la carga nutricional y, ademas de ser una practica prohibida en Colombia, no se estaria informando a los consumidores. En ese sentido, generaria una afectacion para los clientes que tendrian un valor nutricional menor sin saberlo. Ademas, hay personas alergicas a este elemento y algunas que por condiciones intestinales no toleran el subproducto. La Asociacion Colombiana de Procesadores de la Leche (Asoleche), en cabeza de su presidente, Juan Sebastian Bargans, quien preciso que no tiene mas informacion que lo emitido por la SIC. A su vez, desde Asoleche anotaron que "velamos por el cumplimiento de la normativa y respetamos los procesos administrativos que permitan garantizar el correcto funcionamiento de las entidades y el bienestar del consumidor final". SEGUIR LEYENDO: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva Federal aprueba alza de 0,75 puntos en sus tasas de interes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Reserva Federal de Estados Unidos (FED) anuncio, este miercoles 27 de julio, la cuarta alza consecutiva de sus tasas de interes, en 0,75 puntos porcentuales (p. p.), para llevarlas a un rango entre 2,25% y 2,50%, desde el 1,5% y 1,75% anterior. Ademas, preve continuar este movimiento ante una inflacion que sigue alta y fue de 9,1% en junio pasado. "Los recientes indicadores de gastos (de consumo) y produccion se moderaron. Pero la creacion de empleo siguio robusta en los ultimos meses, y la tasa de desempleo sigue baja", resumio la entidad monetaria al anunciar su decision sobre los tipos de interes, en un comunicado publicado al final de la reunion de su Comite de Politica Monetaria (FOMC), iniciada este martes. Inflacion en EE. UU. se dispara y llega a 9,1% en un ano Jerome Powell, presidente de la Reserva Federal, afirmo este miercoles, en conferencia de prensa, que el organismo podria anunciar otra alza de tasas "inusualmente grande" en su proxima reunion, ante una inflacion que es "demasiado alta". En el comunicado de prensa, la FED advirtio de que el conflicto belico ente Rusia y Ucrania causa tremendas dificultades humanas y economicas. "La guerra y los eventos relacionados estan creando una presion alcista adicional sobre la inflacion y estan pesando sobre la actividad economica mundial. El Comite esta muy atento a los riesgos de inflacion", se destaco el organo. "El Comite continuara monitoreando las implicaciones de la informacion entrante para el panorama economico. El Comite estaria preparado para ajustar la postura de la politica monetaria segun corresponda si surgen riesgos que podrian impedir el logro de los objetivos", argumento la Reserva Federal en su comunicado. La decision fue adoptada unanimemente por los 12 integrantes del Comite con derecho a voto, en una reunion que, por primera vez desde 2013, tuvo a todos los miembros de este organismo de la FED reunidos, sin faltas. La de este miercoles es la cuarta alza consecutiva de las tasas directrices del organismo: un cuarto de punto fue lo que subieron en marzo, medio punto en mayo, y tres cuartos de punto porcentual en junio, hasta entonces el mayor incremento desde 1994. Hace dos anos, para enfrentar la pandemia, la FED llevo sus tasas practicamente a cero para fomentar el consumo y la inversion. Ahora, busca el efecto opuesto: enfriar una poco la economia para mitigar las presiones inflacionarias. El FOMC "anticipa que nuevos incrementos de tasas directrices seran apropiados", precisa el comunicado, en el que senala que el organismo permanece "muy atento" a los riesgos inflacionarios. En tanto, el mercado de trabajo se mantiene fuerte, la demanda de los consumidores no ha caido drasticamente y las encuestas muestran que las expectativas de inflacion para los meses venideros han comenzado a bajar. Los responsables de la politica monetaria quieren un "aterrizaje suave", que frene la inflacion sin provocar una recesion, pero los economistas advierten de que el camino para lograrlo se estrecha y que seria facil excederse de ser muy agresivo el ajuste de tipos de interes. La FED hace un delicado equilibrio para tratar de contener la inflacion, y al mismo tiempo no llevar a la mayor economia mundial a una recesion. Para Powell, la economia estadounidense puede evitar ese escenario recesivo, moderando la inflacion y "manteniendo a la vez un mercado laboral solido". El producto interno bruto (PIB) del primer trimestre se contrajo 1,6%, y se preve que el jueves se publique la primera lectura del periodo abril-junio con un crecimiento modesto, pero muchos economistas esperan un retroceso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunicado oficial: Quironsalud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El grupo hospitalario Quironsalud y el C.D. Bidasoa han renovado este jueves el acuerdo que les une desde hace 15 anos. La cita se ha celebrado este mediodia en Policlinica Gipuzkoa y en ella, Isidoro Beltran de Heredia, Director Comercial de Quironsalud en el Pais Vasco, ha senalado que "la renovacion se enmarca dentro de nuestro compromiso con la sociedad guipuzcoana de apoyar el deporte local". Por su parte, el presidente del C.D. Bidasoa, Gurutz Aginagalde, ha mostrado la "satisfaccion y el agradecimiento de que nuestros deportistas puedan seguir bajo el cuidado de Quironsalud". En la cita, en la que tambien ha participado el doctor Ricardo Jimenez, jefe de los servicios medicos de club y galeno de Quironsalud, Aginagalde ha calificado de "imprescindible para un club como el Bidasoa poder contar en su dia a dia con un pilar como Quironsalud, con quien tan buena union tenemos tambien gracias al doctor Jimenez, cuyo gran desempeno y buen hacer tan bien conocemos en el Bidasoa. Buena prueba de ese pilar es que una relacion tan solida cumpla 15 anos, lo que nos hace ilusion". El acuerdo, que vincula a ambas entidades por 15o ano, ofrecera cobertura sanitaria tanto desde el punto de vista de los reconocimientos medicos como la cobertura de las pruebas diagnosticas que se precisen. Quironsalud Quironsalud es el grupo hospitalario lider en Espana y, junto con su matriz Fresenius-Helios, tambien en Europa. Ademas de su actividad en Espana, Quironsalud esta tambien presente en Latinoamerica, particularmente en Colombia y Peru. Conjuntamente, cuenta con mas de 45.000 profesionales en mas de 125 centros sanitarios, entre los que se encuentran 56 hospitales con aproximadamente 8.000 camas hospitalarias. Dispone de la tecnologia mas avanzada y de un gran equipo de profesionales altamente especializado y de prestigio internacional. airbnb , bitcoin , yangin algilama sistemleri Entre sus centros, se encuentran el Hospital Universitario Fundacion Jimenez Diaz, Centro Medico Teknon, Ruber Internacional, Hospital Universitario Quironsalud Madrid, Hospital Quironsalud Barcelona, Hospital Universitario Dexeus, Policlinica Gipuzkoa, Hospital Universitari General de Catalunya, Hospital Quironsalud Sagrado Corazon, etc. El Grupo trabaja en la promocion de la docencia (ocho de sus hospitales son universitarios) y la investigacion medico-cientifica (cuenta con el Instituto de Investigacion Sanitaria de la FJD, acreditado por la Secretaria de Estado de Investigacion, Desarrollo e Innovacion). Asimismo, su servicio asistencial esta organizado en unidades y redes transversales que permiten optimizar la experiencia acumulada en los distintos centros y la traslacion clinica de sus investigaciones. Actualmente, Quironsalud esta desarrollando multitud de proyectos de investigacion en toda Espana y muchos de sus centros realizan en este ambito una labor puntera, siendo pioneros en diferentes especialidades como oncologia, cardiologia, endocrinologia, ginecologia y neurologia, entre otras. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otro problema para la corona britanica: el principe Carlos recibio 1,2 millones de euros de la familia de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principe Carlos , heredero al trono britanico, acepto en 2013 un donativo de un millon de libras (1,2 millones de euros) para sus organizaciones beneficas de la familia del terrorista saudi Osama bin Laden , informo este domingo The Sunday Times . De acuerdo con el periodico, el futuro rey recibio el dinero de Bakr bin Laden, el patriarca actual de la rica familia saudita, y su hermano Shafiq, ambos hermanastros por parte de padre de Osama. El fundador de Al Qaeda fue ejecutado en 2011 en Pakistan en una operacion militar de Estados Unidos , al ser acusado de los atentados del 11 de septiembre de 2001 en ese pais, que causaron 2.996 muertes y mas de 25.000 heridos. El diario precisa que no hay indicios de que los hermanastros estuvieran vinculados con las actividades del dirigente islamista , cuyo padre, el millonario de origen yemeni Mohammed bin Awad bin Laden, murio en un accidente de avion en 1967. Segun el "Times", Carlos, de 73 anos, se reunio con Bakr, de 76, en su palacio de Clarence House, en Londres, el 30 de octubre de 2013, dos anos despues de la muerte de Osama bin Laden. El heredero acepto el donativo pese al consejo expreso de varios asesores, que le advirtieron de que "no seria bueno para nadie" y podria danar su reputacion. De acuerdo con el diario, el principe penso que rechazarlo seria embarazoso de cara al empresario saudi. El dinero se deposito, a traves del banco de la monarquia Coutts, en la cuenta del Fondo Benefico del Principe de Gales (PWCF, por sus siglas en ingles), que distribuye subvenciones a organizaciones britanicas sin animo de lucro, explica el rotativo, que senala que la junta de este Fondo lo acepto formalmente a posteriori. En un comunicado, Ian Cheshire, presidente del PWCF, ha asegurado que "la donacion de Bakr bin Laden en 2013 fue cuidadosamente considerada" y acordada por los cinco fideicomisarios de la epoca, si bien, segun el "Times", al menos uno expreso sus dudas. "Se llevo a cabo la debida diligencia, con informacion de una amplia gama de fuentes, incluido el Gobierno. La decision de aceptar la donacion fue de los sindicos. Cualquier intento de sugerir otra cosa es enganoso e inexacto ", declara Cheshire. Estos fideicomisarios eran Amelia Fawcett, una alta ejecutiva que actualmente preside los famosos jardines botanicos londinenses de Kew; Michael Rake, expresidente de BT; John Varley, antiguo director ejecutivo de Barclays; el academico Kenneth Wilson y William Nye, entonces el principal secretario privado de Carlos. Un portavoz de Clarence House Clarence House ha incidido en que "la decision de aceptar (el donativo) fue tomada solo por los fideicomisarios y cualquier intento de caracterizarla de otra manera es falso". "El Fondo Benefico del Principe de Gales nos ha asegurado que se efectuaron exhaustivas diligencias antes de aceptar la donacion", anaden. Estas revelaciones se producen despues de que en junio el mismo periodico informara de que el principe percibio entre 2011 y 2015 tres lotes de dinero en efectivo por valor de 3 millones de euros del ex primer ministro y ministro de Exteriores de Qatar, Hamad bin Jassim bin Jaber Al Thani. La Comision britanica de supervision de las organizaciones beneficas decidio el pasado dia 20 no investigar este donativo. Sin embargo, la Policia si investiga las acusaciones de que un antiguo ayudante de Carlos, Michael Fawcett, prometio titulos y la ciudadania a un magnate saudi a cambio de una contribucion economica a otra entidad benefica del heredero, la Fundacion del Principe. Clarence House mantiene que Carlos, que cada vez asume mas funciones de jefe de Estado ante la avanzada edad de Isabel II, "no tenia conocimiento" de esos intercambios. Fuente: EFE y AFP PB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco Agrario desmintio una supuesta descapitalizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Banco Agrario hablo este lunes sobre el "informe ejecutivo de empalme" presentado por la comision del gobierno entrante, en el que se reporta como una "alerta critica" una supuesta descapitalizacion del Banco por $700.000 millones. Ante esto, la entidad aseguro que "no es verdad que la entidad tenga un problema de descapitalizacion o falta de capital para adelantar sus operaciones misionales. La solvencia del Banco al corte de junio se ubico en 15,72 %, teniendo en cuenta que los ultimos datos de la Superintendencia Financiera del mes de abril indican que la solvencia promedio del sistema bancario en Colombia es de 16,23 %, se puede concluir que la solvencia del Banco Agrario es adecuada". El indicador de solvencia mide en terminos generales la relacion entre el capital de una entidad bancaria y su volumen de cartera, siendo el limite regulatorio 9 %. Tener un margen de solvencia superior en un 74,6 % al limite regulatorio significa que el banco tiene suficiente capital para cumplir con sus expectativas de crecimiento aun en los escenarios mas agresivos. En diciembre de 2019 la asamblea general del Banco Agrario autorizo la escision del capital del Banco para nutrir con $700 mil millones al Grupo Bicentenario. Como insumo para la toma de dicha decision, el Ministerio de Hacienda le pidio a la administracion del banco hacer un analisis sobre el impacto que una reduccion de capital pudiera tener sobre los planes de crecimiento de la cartera. Y tras un analisis financiero, se determino que una reduccion de $700.000 millones no limitaria los planes de crecimiento de la entidad ni su solidez financiera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itau y Principal sellan alianza para ofrecer productos APV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principal Chile y Banco Itau firmaron una nueva alianza para facilitar el Ahorro Previsional Voluntario (APV) de las personas, poniendo a disposicion de los mas de 350 mil clientes de la entidad bancaria una cartera de fondos que busca complementar el ahorro para la jubilacion . Los fondos que se podran contratar a traves de Itau son los Fondos Mutuos Itau Principal Lifetime, una herramienta autogestionada que se define segun la decada en la que se pensionara el cliente y que se va ajustando y balanceando automaticamente para disminuir el riesgo a medida que se acerca el horizonte de inversion definido. La alianza entre estas dos empresas -que tienen presencia en todo el pais- busca acompanar a las personas en las distintas etapas de su vida, aportando en la construccion de la mejor pension posible , aseguraron en un comunicado. Esta es la primera vez que el banco ofrecera productos de este tipo a sus clientes y lo hara junto a Principal, compania multinacional que destaca por su trayectoria y conocimiento en la materia y que ocupa el primer puesto en APV y en Fondos Mutuos APV en Chile, concentrando la mayor participacion de mercado 1. "Estamos contentos de contar con un partner como Principal Chile para entregar nuevas opciones de inversion a largo plazo, complementando asi nuestra cartera de productos centrada en el cliente", destaco Wagner Guida, gerente de Productos de Inversion de Itau. Por su parte, el gerente general de Principal Chile AGF, Mariano Ugarte , sostuvo que esta alianza "le permitira aumentar su universo de clientes, para asi poder entregar un mejor servicio a mas personas de una forma simple y directa". Es importante mencionar que este producto se puede contratar de forma rapida y sencilla, ya sea a traves del sitio web itau.cl, App Itau Chile o en cualquier sucursal del banco. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIB de Colombia creceria un 6,3% en 2022, segun proyecciones del FMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia sera el pais de mejor comportamiento en el 2022 entre las economias latinoamericanas, pero la buena dinamica de este ano se moderara en 2023. (Lea: El FMI revisa al alza el PIB de America Latina). Asi lo considero el Fondo Monetario Internacional (FMI) en la revision de sus proyecciones mundiales en las que considero que el pais creceria en torno al 6,3%, superior al 5,8 % que informo en abril pasado. (Ademas: Es clave que tributaria no sea una colcha de remiendos: Banco Mundial). Despues de Colombia le seguirian Argentina, con un repunte del 4%; Peru con 2,8%; Mexico con 2,4%; Chile con 1,8% y Brasil con el 1,7%. El Fondo Monetario Internacional dijo que America Latina tendra un crecimiento de 3% para 2022 y de 2% para 2023. Entre las razones que impulsarian el crecimiento economico en Chile y Colombia, dice el FMI, estan "una recuperacion solida y dinamica" impulsadas por el crecimiento de servicios y, en parte, por los estimulos fiscales del 2021. A pesar de ello, la inflacion se presenta como el mayor reto macroeconomico que enfrentara la region en los tiempos venideros. "La inflacion se ha acelerado en la region en medio de un repunte de la demanda interna, problemas persistentes en las cadenas de suministro y el encarecimiento de las materias primas", menciono el organismo. Por otro lado, para 2023 el FMI rebajo en 0,1 puntos porcentuales la prevision del crecimiento para Colombia, desde el 3,6% al 3,5%. El reporte dice que las condiciones financieras mundiales se endurecen y los precios de las materias primas estan revirtiendo su tendencia alcista, mientras persisten las presiones inflacionarias. La reapertura de los sectores intensivos en empleo y las condiciones financieras externas aun favorables respaldaron una solida expansion en la primera mitad del ano. PORTAFOLIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'Reputacion de Sacyr si importa para licitacion del Canal del Dique': Contraloria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada vez son mas las dudas que estan sobre la mesa respecto a la licitacion para el Canal del Dique. El nuevo ministro de Transporte, Guillermo Reyes, anuncio el jueves que se suspende nuevamente la adjudicacion, esta vez hasta el proximo 12 de septiembre. Lea: Suspenden hasta el 12 de septiembre la adjudicacion del Canal del Dique El megaproyecto de $3,2 billones ha sido duramente cuestionado por las denuncias de los impactos ambientales que implica, por las alertas de las comunidades que aseguran que no hubo una participacion efectiva, porque la adjudicacion se iba a realizar a pocas horas del final del Gobierno Duque y porque el unico oferente despierta muchas dudas. A esto se suma que la Jurisdiccion Especial para la Paz (JEP) ordeno que se garantice la busqueda de desaparecidos en esta zona. Este diario conocio un documento enviado a Carlos Alberto Garcia, presidente encargado de la Agencia Nacional de Infraestructura, en el que la Contraloria pide evaluar los efectos de novedades judiciales y advierte que la reputacion de Sacyr si es un elemento relevante, como tambien lo es evaluar si la firma sera capaz de completar dos obras que suman cerca de $7 billones, teniendo en cuenta que se le adjudico el proyecto Buga-Buenaventura, el viernes pasado. El documento firmado por Luis Fernando Mejia Gomez, contralor delegado para el sector de infraestructura, pone en conocimiento de la ANI que el Juzgado Tercero Administrativo del Circuito de Cartagena admitio una tutela el 4 de agosto de 2022 y decreto varias pruebas, de ahi que solicita a la entidad que antes de la adjudicacion "evalue bien" los efectos que la decision podria tener en la estructuracion del proyecto y en la licitacion. Le recomendamos: ANI adjudico Buga-Buenaventura a Sacyr, empresa interesada en el Canal del Dique Especialmente, dice la Contraloria, porque ya esta cerrada la licitacion, porque la medida solicita realizar consulta previa al Consejo Comunitario de la Comunidad Afrodescendiente El Jinete Libre, porque se desconocen los "compromisos sociales, ambientales, tecnicos y economicos que de ella se derivarian" y porque solo se puede abrir una licitacion cuando ya se han hecho todas las consultas previas que tienen que ver con el proyecto. La Contraloria tambien llamo la atencion sobre la decision de la Justicia Especial para la Paz (JEP) en la que se le ordena a la ANI adoptar protocolos tecnicos para asegurar la "busqueda, recuperacion, identificacion y entrega digna a sus familiares de los cuerpos de las victimas desaparecidas a lo largo del referido cuerpo de agua, aproximadamente unas 9.638 personas". Al respecto, el organo de control pide evaluar e informar cuales son los efectos de esa decision en el proyecto, particularmente porque la JEP ordeno "realizar unas delicadas actividades que no estan incluidas en el objeto y alcance del futuro contrato de concesion, ni en las obligaciones a cargo del futuro concesionario ni tampoco en el Capex y cronograma de este proyecto". El organo de control asegura que se publicara un oficio sobre la respuesta de la ANI a la alerta de control interno respecto al proceso de evaluacion de la unica oferta recibida para la licitacion. En dicha alerta, la Contraloria advirtio los riesgos de adjudicar el Canal del Dique y senalo inconsistencias en la oferta de Sacyr. Entre otras cosas, en ese documento la entidad le pregunto a la Agencia si "ha realizado la debida verificacion de los eventuales efectos reputacionales y de relacionamiento con posibles financiadores del oferente, en razon de la reciente sancion aplicada en Espana a la firma matriz y 100 % controlante del oferente por la Comision Nacional de los Mercados y la Competencia bajo el cargo de \'alterar el sistema de licitaciones publicas para Edificaciones e Infraestructuras\'". Tambien lea: Las inquietudes ambientales de las obras en el Canal del Dique Por ahora, la Contraloria adelanto que los requisitos de esta y de cualquier otra licitacion publica se deben cumplir rigurosamente "por todos los oferentes, independientemente de que solo sea uno, y de que algunos funcionarios eventualmente puedan considerar que lo importante es que el proyecto se pueda adjudicar y ejecutar". Ademas, la entidad sostiene que, contrario a lo que dijo la ANI, previo a cualquier adjudicacion, el contratante "si tiene el deber de evaluar los eventuales efectos de hechos relevantes y sobrevinientes tales como las posibles afectaciones reputacionales de un oferente y/o su efectiva capacidad para obtener la financiacion requerida para ejecutar simultaneamente dos proyectos". De hecho, la Contraloria recuerda que los dos proyectos (Canal del Dique y Buga-Buenaventura) suman cerca de $7 billones. Vale recordar que entrevista con este diario, el entonces director de la Agencia Nacional de Infraestructura (ANI), Manuel Gutierrez, dijo que la entidad estaba obligada a continuar con el proceso porque no habia "causas objetivas para dar terminacion o para desistir del mismo". Lea: La disputa en la ANI detras del aplazamiento de la licitacion del Canal del Dique Sacyr ha insistido en que no esta inhabilitada porque la sancion en Espana no esta en firme. "Se va a recurrir ante la Audiencia Nacional e incluso puede llegar hasta el Tribunal Supremo, que es cuando adquiriria firmeza. Entre tanto, Sacyr no esta inhabilitada ni esta en causal de inhabilitacion", asegura. Finalmente, el organo de control recuerda que en varias ocasiones ha expresado las inquietudes sobre la estructuracion de este proyecto, y que todas fueron desestimadas por la ANI. "Vemos ahora que algunas de estas inquietudes coinciden con las expresadas recientemente por altos Funcionarios del nuevo Gobierno Nacional, principalmente en lo que se refiere al licenciamiento ambiental, al riesgo arqueologico, a la eventual modificacion de unos estudios y disenos que la ANI ha definido como de Fase III y a la obligacion de dragar el canal sin que esten bien definidas la periodicidad, los indicadores a medir, el nivel de servicio exigido al concesionario y el sitio de deposito del material dragado". ?Ya te enteraste de las ultimas noticias economicas ? Te invitamos a verlas en El Espectador .</t>
   </si>
 </sst>
 </file>
@@ -236,7 +314,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,6 +325,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -266,13 +348,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="103.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.7"/>
@@ -466,6 +548,151 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="19.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="27.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="25.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="25.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="36.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="77.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
